--- a/02_MasterWifoMannheim/03_Courses/Course81.xlsx
+++ b/02_MasterWifoMannheim/03_Courses/Course81.xlsx
@@ -1,37 +1,142 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mailunimannheimde-my.sharepoint.com/personal/pstapf_mail_uni-mannheim_de/Documents/Uni/Master/Masterarbeit/Course_Suggestion/02_MasterWifoMannheim/03_Courses/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_2B59D2BFD3D05905DB9B3611595D90315545F8D0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{48358894-D034-49F8-A77C-5231B78F58B2}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+  <si>
+    <t>Module</t>
+  </si>
+  <si>
+    <t>FIN 640 Corporate Finance II (Mergers, Acquisitions and Divestitures)</t>
+  </si>
+  <si>
+    <t>Contents</t>
+  </si>
+  <si>
+    <t>The topic of this course is the restructuring of corporations through mergers, acquisitions and divestitures. The purpose of the lecture is to provide an understanding of restructuring processes and to provide an analytic framework to analyze the motivation of these activities and their individual merits. strategy and the contractual structures of various types of transactions. We will also discuss valuation and cost of capital in an international context. The lecture will frequently draw on empirical studies, especially on event studies. case studies in groups of up to three students.</t>
+  </si>
+  <si>
+    <t>Learning outcomes</t>
+  </si>
+  <si>
+    <t>After completing this course, students will be able to develop and evaluate strategic rationales for models using real world data and evaluate whether a particular transaction makes sense from an economic perspective. Microsoft Excel, to understand the legal and institutional context of interpret scientific studies and make appropriate inferences from them for the M&amp;A process.</t>
+  </si>
+  <si>
+    <t>Prerequisites</t>
+  </si>
+  <si>
+    <t>Benötigte Kurse</t>
+  </si>
+  <si>
+    <t>FIN 540, FIN 541</t>
+  </si>
+  <si>
+    <t>Obligatory registration</t>
+  </si>
+  <si>
+    <t>Further Information on registration: “Student Portal”</t>
+  </si>
+  <si>
+    <t>Courses Hours per week Self-study Lecture 2 8 Case discussion 1 9</t>
+  </si>
+  <si>
+    <t>ECTS</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>Form of assessment</t>
+  </si>
+  <si>
+    <t>Final exam (40%), case write-ups (45%), oral participation in case discussions (15%)</t>
+  </si>
+  <si>
+    <t>Preliminary course work -</t>
+  </si>
+  <si>
+    <t>Lecturer/Person in charge</t>
+  </si>
+  <si>
+    <t>Marc Gabarro Bonet, Ph.D.</t>
+  </si>
+  <si>
+    <t>Duration of module</t>
+  </si>
+  <si>
+    <t>1 semester</t>
+  </si>
+  <si>
+    <t>Offering</t>
+  </si>
+  <si>
+    <t>SSS</t>
+  </si>
+  <si>
+    <t>Language</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>Program-specific educational goals</t>
+  </si>
+  <si>
+    <t>Grade</t>
+  </si>
+  <si>
+    <t>graded</t>
+  </si>
+  <si>
+    <t>Range of application</t>
+  </si>
+  <si>
+    <t>M.Sc. MMM, M.Sc. MMBR, M.Sc. Bus. Edu., M.Sc. Bus. Inf., M.Sc. Bus. Math., M.Sc. Econ.</t>
+  </si>
+  <si>
+    <t>and Insurance (FIN), FIN 540, FIN 541</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +151,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,217 +475,148 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="n">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="n">
+      <c r="B1" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Module</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>FIN 640 Corporate Finance II (Mergers, Acquisitions and Divestitures)</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Contents</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>The topic of this course is the restructuring of corporations through mergers, acquisitions and divestitures. The purpose of the lecture is to provide an understanding of restructuring processes and to provide an analytic framework to analyze the motivation of these activities and their individual merits. strategy and the contractual structures of various types of transactions. We will also discuss valuation and cost of capital in an international context. The lecture will frequently draw on empirical studies, especially on event studies. case studies in groups of up to three students.</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Learning outcomes</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>After completing this course, students will be able to develop and evaluate strategic rationales for models using real world data and evaluate whether a particular transaction makes sense from an economic perspective. Microsoft Excel, to understand the legal and institutional context of interpret scientific studies and make appropriate inferences from them for the M&amp;A process.</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Prerequisites</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>and Insurance (FIN)</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Benötigte Kurse</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>FIN 540, FIN 541</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Obligatory registration</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Further Information on registration: “Student Portal”</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Courses Hours per week Self-study Lecture 2 8 Case discussion 1 9</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>ECTS</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Form of assessment</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Final exam (40%), case write-ups (45%), oral participation in case discussions (15%)</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Preliminary course work -</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Lecturer/Person in charge</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Marc Gabarro Bonet, Ph.D.</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Duration of module</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>1 semester</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Offering</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>SSS</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Language</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>English</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Program-specific educational goals</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Grade</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>graded</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Range of application</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>M.Sc. MMM, M.Sc. MMBR, M.Sc. Bus. Edu., M.Sc. Bus. Inf., M.Sc. Bus. Math., M.Sc. Econ.</t>
-        </is>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
